--- a/Burndown-Chart.xlsx
+++ b/Burndown-Chart.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\project\groupwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9095B898-25DE-4447-8319-F068DEB226BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9CCE61-EA15-4FFA-B7DA-C3A83FE450FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6984A7E-5666-4EB9-8B4A-B7D3A26D9E40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7190FF0D-32E4-43CA-86D4-737BDD77A43B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,18 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Week Left</t>
+    <t>แผนที่วาง</t>
   </si>
   <si>
-    <t>Day Left</t>
+    <t>งานที่ทำได้</t>
   </si>
   <si>
-    <t>Man Hour per day</t>
-  </si>
-  <si>
-    <t>Man hour</t>
+    <t>เวลา</t>
   </si>
 </sst>
 </file>
@@ -101,6 +98,1120 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>แผนที่วาง</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8859-46A4-8959-C33CF0C11917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>งานที่ทำได้</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8859-46A4-8959-C33CF0C11917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="795028872"/>
+        <c:axId val="795030840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795028872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795030840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795030840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795028872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FFDEB4-2537-5ACC-ADCE-1E5CAE95A043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,91 +1510,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA116762-16BC-4E8B-995A-F3BCE386F26B}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A31FB7-DDE2-4BCA-9D22-CFA1E38EB814}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <f>B2-20</f>
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B13" si="0">B3-20</f>
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>(C2*21)</f>
-        <v>42</v>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">(C3*21)</f>
-        <v>42</v>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="D7">
-        <f>SUM(D2:D6)</f>
-        <v>210</v>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown-Chart.xlsx
+++ b/Burndown-Chart.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\project\groupwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9095B898-25DE-4447-8319-F068DEB226BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CC93C-0EF5-497F-8FF3-2B4DA39279F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B6984A7E-5666-4EB9-8B4A-B7D3A26D9E40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7190FF0D-32E4-43CA-86D4-737BDD77A43B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,18 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Week Left</t>
+    <t>แผนที่วาง</t>
   </si>
   <si>
-    <t>Day Left</t>
+    <t>งานที่ทำได้</t>
   </si>
   <si>
-    <t>Man Hour per day</t>
-  </si>
-  <si>
-    <t>Man hour</t>
+    <t>เวลา</t>
   </si>
 </sst>
 </file>
@@ -101,6 +98,1123 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>แผนที่วาง</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8859-46A4-8959-C33CF0C11917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>งานที่ทำได้</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8859-46A4-8959-C33CF0C11917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="795028872"/>
+        <c:axId val="795030840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="795028872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795030840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795030840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795028872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FFDEB4-2537-5ACC-ADCE-1E5CAE95A043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,91 +1513,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA116762-16BC-4E8B-995A-F3BCE386F26B}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A31FB7-DDE2-4BCA-9D22-CFA1E38EB814}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>220</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <f>B2-20</f>
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B13" si="0">B3-20</f>
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>170</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <f>(C2*21)</f>
-        <v>42</v>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D6" si="0">(C3*21)</f>
-        <v>42</v>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>120</v>
+      </c>
+      <c r="C7">
+        <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="D7">
-        <f>SUM(D2:D6)</f>
-        <v>210</v>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Burndown-Chart.xlsx
+++ b/Burndown-Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\project\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751CC93C-0EF5-497F-8FF3-2B4DA39279F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15387A7-13AB-44BF-A790-02A77A89198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7190FF0D-32E4-43CA-86D4-737BDD77A43B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7190FF0D-32E4-43CA-86D4-737BDD77A43B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -407,6 +407,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1516,15 +1519,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A31FB7-DDE2-4BCA-9D22-CFA1E38EB814}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1676,6 +1679,9 @@
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Burndown-Chart.xlsx
+++ b/Burndown-Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usar\Desktop\project\groupwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15387A7-13AB-44BF-A790-02A77A89198A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5CDD37-D42D-4B95-A36F-2B41B007970B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7190FF0D-32E4-43CA-86D4-737BDD77A43B}"/>
   </bookViews>
@@ -409,7 +409,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1520,7 +1520,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
